--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2515.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2515.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.583951027687901</v>
+        <v>1.618479490280151</v>
       </c>
       <c r="B1">
-        <v>3.836761327915634</v>
+        <v>2.526807546615601</v>
       </c>
       <c r="C1">
-        <v>3.013595391133256</v>
+        <v>2.759284496307373</v>
       </c>
       <c r="D1">
-        <v>2.135905552698992</v>
+        <v>3.091423511505127</v>
       </c>
       <c r="E1">
-        <v>2.276390289452128</v>
+        <v>3.405114889144897</v>
       </c>
     </row>
   </sheetData>
